--- a/01_requirements/非機能要求一覧.xlsx
+++ b/01_requirements/非機能要求一覧.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCF04B9-4E8F-4B54-B8BE-3A9E9B8A676B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B10961-3062-438B-9DEA-D68BC98F19B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7230" yWindow="1980" windowWidth="12180" windowHeight="8940" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1395" yWindow="285" windowWidth="18330" windowHeight="10245" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非機能要求" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>非機能要求</t>
     <rPh sb="0" eb="1">
@@ -99,18 +99,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>N01-01</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>N01-02</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>N01-03</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>N02</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -146,18 +134,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>N02-01</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>N02-02</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>N02-03</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>N03</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -190,18 +166,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>N03-01</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>N03-02</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>N03-03</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>N04</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -248,10 +212,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>N04-03</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>N05</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -294,14 +254,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>N05-02</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>N05-03</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>優先度</t>
     <rPh sb="0" eb="3">
       <t>ユウセンド</t>
@@ -388,6 +340,61 @@
   </si>
   <si>
     <t>WANT</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>操作性の高いシステムにする。</t>
+    <rPh sb="0" eb="3">
+      <t>ソウサセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>GUIで実現する。</t>
+    <rPh sb="4" eb="6">
+      <t>ジツゲン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>難易度調整をできるようにする。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>設計段階で検討する。</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>時間を計測、結果で表示する。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>第2反復では検討しない。</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>拡張性の高い設計、実装を行う。</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -469,7 +476,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -540,17 +547,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -617,39 +613,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -671,26 +661,32 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1067,10 +1063,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E30"/>
+  <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1078,589 +1074,563 @@
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.75" style="1" customWidth="1"/>
-    <col min="6" max="256" width="3.625" style="1"/>
-    <col min="257" max="257" width="1.625" style="1" customWidth="1"/>
-    <col min="258" max="258" width="5.625" style="1" customWidth="1"/>
-    <col min="259" max="259" width="8.625" style="1" customWidth="1"/>
-    <col min="260" max="260" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="262" max="512" width="3.625" style="1"/>
-    <col min="513" max="513" width="1.625" style="1" customWidth="1"/>
-    <col min="514" max="514" width="5.625" style="1" customWidth="1"/>
-    <col min="515" max="515" width="8.625" style="1" customWidth="1"/>
-    <col min="516" max="516" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="518" max="768" width="3.625" style="1"/>
-    <col min="769" max="769" width="1.625" style="1" customWidth="1"/>
-    <col min="770" max="770" width="5.625" style="1" customWidth="1"/>
-    <col min="771" max="771" width="8.625" style="1" customWidth="1"/>
-    <col min="772" max="772" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="774" max="1024" width="3.625" style="1"/>
-    <col min="1025" max="1025" width="1.625" style="1" customWidth="1"/>
-    <col min="1026" max="1026" width="5.625" style="1" customWidth="1"/>
-    <col min="1027" max="1027" width="8.625" style="1" customWidth="1"/>
-    <col min="1028" max="1028" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1280" width="3.625" style="1"/>
-    <col min="1281" max="1281" width="1.625" style="1" customWidth="1"/>
-    <col min="1282" max="1282" width="5.625" style="1" customWidth="1"/>
-    <col min="1283" max="1283" width="8.625" style="1" customWidth="1"/>
-    <col min="1284" max="1284" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1536" width="3.625" style="1"/>
-    <col min="1537" max="1537" width="1.625" style="1" customWidth="1"/>
-    <col min="1538" max="1538" width="5.625" style="1" customWidth="1"/>
-    <col min="1539" max="1539" width="8.625" style="1" customWidth="1"/>
-    <col min="1540" max="1540" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1792" width="3.625" style="1"/>
-    <col min="1793" max="1793" width="1.625" style="1" customWidth="1"/>
-    <col min="1794" max="1794" width="5.625" style="1" customWidth="1"/>
-    <col min="1795" max="1795" width="8.625" style="1" customWidth="1"/>
-    <col min="1796" max="1796" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="1798" max="2048" width="3.625" style="1"/>
-    <col min="2049" max="2049" width="1.625" style="1" customWidth="1"/>
-    <col min="2050" max="2050" width="5.625" style="1" customWidth="1"/>
-    <col min="2051" max="2051" width="8.625" style="1" customWidth="1"/>
-    <col min="2052" max="2052" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2304" width="3.625" style="1"/>
-    <col min="2305" max="2305" width="1.625" style="1" customWidth="1"/>
-    <col min="2306" max="2306" width="5.625" style="1" customWidth="1"/>
-    <col min="2307" max="2307" width="8.625" style="1" customWidth="1"/>
-    <col min="2308" max="2308" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2560" width="3.625" style="1"/>
-    <col min="2561" max="2561" width="1.625" style="1" customWidth="1"/>
-    <col min="2562" max="2562" width="5.625" style="1" customWidth="1"/>
-    <col min="2563" max="2563" width="8.625" style="1" customWidth="1"/>
-    <col min="2564" max="2564" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2816" width="3.625" style="1"/>
-    <col min="2817" max="2817" width="1.625" style="1" customWidth="1"/>
-    <col min="2818" max="2818" width="5.625" style="1" customWidth="1"/>
-    <col min="2819" max="2819" width="8.625" style="1" customWidth="1"/>
-    <col min="2820" max="2820" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2822" max="3072" width="3.625" style="1"/>
-    <col min="3073" max="3073" width="1.625" style="1" customWidth="1"/>
-    <col min="3074" max="3074" width="5.625" style="1" customWidth="1"/>
-    <col min="3075" max="3075" width="8.625" style="1" customWidth="1"/>
-    <col min="3076" max="3076" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3328" width="3.625" style="1"/>
-    <col min="3329" max="3329" width="1.625" style="1" customWidth="1"/>
-    <col min="3330" max="3330" width="5.625" style="1" customWidth="1"/>
-    <col min="3331" max="3331" width="8.625" style="1" customWidth="1"/>
-    <col min="3332" max="3332" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3584" width="3.625" style="1"/>
-    <col min="3585" max="3585" width="1.625" style="1" customWidth="1"/>
-    <col min="3586" max="3586" width="5.625" style="1" customWidth="1"/>
-    <col min="3587" max="3587" width="8.625" style="1" customWidth="1"/>
-    <col min="3588" max="3588" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3840" width="3.625" style="1"/>
-    <col min="3841" max="3841" width="1.625" style="1" customWidth="1"/>
-    <col min="3842" max="3842" width="5.625" style="1" customWidth="1"/>
-    <col min="3843" max="3843" width="8.625" style="1" customWidth="1"/>
-    <col min="3844" max="3844" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3846" max="4096" width="3.625" style="1"/>
-    <col min="4097" max="4097" width="1.625" style="1" customWidth="1"/>
-    <col min="4098" max="4098" width="5.625" style="1" customWidth="1"/>
-    <col min="4099" max="4099" width="8.625" style="1" customWidth="1"/>
-    <col min="4100" max="4100" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4352" width="3.625" style="1"/>
-    <col min="4353" max="4353" width="1.625" style="1" customWidth="1"/>
-    <col min="4354" max="4354" width="5.625" style="1" customWidth="1"/>
-    <col min="4355" max="4355" width="8.625" style="1" customWidth="1"/>
-    <col min="4356" max="4356" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4608" width="3.625" style="1"/>
-    <col min="4609" max="4609" width="1.625" style="1" customWidth="1"/>
-    <col min="4610" max="4610" width="5.625" style="1" customWidth="1"/>
-    <col min="4611" max="4611" width="8.625" style="1" customWidth="1"/>
-    <col min="4612" max="4612" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4864" width="3.625" style="1"/>
-    <col min="4865" max="4865" width="1.625" style="1" customWidth="1"/>
-    <col min="4866" max="4866" width="5.625" style="1" customWidth="1"/>
-    <col min="4867" max="4867" width="8.625" style="1" customWidth="1"/>
-    <col min="4868" max="4868" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4870" max="5120" width="3.625" style="1"/>
-    <col min="5121" max="5121" width="1.625" style="1" customWidth="1"/>
-    <col min="5122" max="5122" width="5.625" style="1" customWidth="1"/>
-    <col min="5123" max="5123" width="8.625" style="1" customWidth="1"/>
-    <col min="5124" max="5124" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5376" width="3.625" style="1"/>
-    <col min="5377" max="5377" width="1.625" style="1" customWidth="1"/>
-    <col min="5378" max="5378" width="5.625" style="1" customWidth="1"/>
-    <col min="5379" max="5379" width="8.625" style="1" customWidth="1"/>
-    <col min="5380" max="5380" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5632" width="3.625" style="1"/>
-    <col min="5633" max="5633" width="1.625" style="1" customWidth="1"/>
-    <col min="5634" max="5634" width="5.625" style="1" customWidth="1"/>
-    <col min="5635" max="5635" width="8.625" style="1" customWidth="1"/>
-    <col min="5636" max="5636" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5888" width="3.625" style="1"/>
-    <col min="5889" max="5889" width="1.625" style="1" customWidth="1"/>
-    <col min="5890" max="5890" width="5.625" style="1" customWidth="1"/>
-    <col min="5891" max="5891" width="8.625" style="1" customWidth="1"/>
-    <col min="5892" max="5892" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5894" max="6144" width="3.625" style="1"/>
-    <col min="6145" max="6145" width="1.625" style="1" customWidth="1"/>
-    <col min="6146" max="6146" width="5.625" style="1" customWidth="1"/>
-    <col min="6147" max="6147" width="8.625" style="1" customWidth="1"/>
-    <col min="6148" max="6148" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6400" width="3.625" style="1"/>
-    <col min="6401" max="6401" width="1.625" style="1" customWidth="1"/>
-    <col min="6402" max="6402" width="5.625" style="1" customWidth="1"/>
-    <col min="6403" max="6403" width="8.625" style="1" customWidth="1"/>
-    <col min="6404" max="6404" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6656" width="3.625" style="1"/>
-    <col min="6657" max="6657" width="1.625" style="1" customWidth="1"/>
-    <col min="6658" max="6658" width="5.625" style="1" customWidth="1"/>
-    <col min="6659" max="6659" width="8.625" style="1" customWidth="1"/>
-    <col min="6660" max="6660" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6912" width="3.625" style="1"/>
-    <col min="6913" max="6913" width="1.625" style="1" customWidth="1"/>
-    <col min="6914" max="6914" width="5.625" style="1" customWidth="1"/>
-    <col min="6915" max="6915" width="8.625" style="1" customWidth="1"/>
-    <col min="6916" max="6916" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6918" max="7168" width="3.625" style="1"/>
-    <col min="7169" max="7169" width="1.625" style="1" customWidth="1"/>
-    <col min="7170" max="7170" width="5.625" style="1" customWidth="1"/>
-    <col min="7171" max="7171" width="8.625" style="1" customWidth="1"/>
-    <col min="7172" max="7172" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7424" width="3.625" style="1"/>
-    <col min="7425" max="7425" width="1.625" style="1" customWidth="1"/>
-    <col min="7426" max="7426" width="5.625" style="1" customWidth="1"/>
-    <col min="7427" max="7427" width="8.625" style="1" customWidth="1"/>
-    <col min="7428" max="7428" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7680" width="3.625" style="1"/>
-    <col min="7681" max="7681" width="1.625" style="1" customWidth="1"/>
-    <col min="7682" max="7682" width="5.625" style="1" customWidth="1"/>
-    <col min="7683" max="7683" width="8.625" style="1" customWidth="1"/>
-    <col min="7684" max="7684" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7936" width="3.625" style="1"/>
-    <col min="7937" max="7937" width="1.625" style="1" customWidth="1"/>
-    <col min="7938" max="7938" width="5.625" style="1" customWidth="1"/>
-    <col min="7939" max="7939" width="8.625" style="1" customWidth="1"/>
-    <col min="7940" max="7940" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7942" max="8192" width="3.625" style="1"/>
-    <col min="8193" max="8193" width="1.625" style="1" customWidth="1"/>
-    <col min="8194" max="8194" width="5.625" style="1" customWidth="1"/>
-    <col min="8195" max="8195" width="8.625" style="1" customWidth="1"/>
-    <col min="8196" max="8196" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8448" width="3.625" style="1"/>
-    <col min="8449" max="8449" width="1.625" style="1" customWidth="1"/>
-    <col min="8450" max="8450" width="5.625" style="1" customWidth="1"/>
-    <col min="8451" max="8451" width="8.625" style="1" customWidth="1"/>
-    <col min="8452" max="8452" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8704" width="3.625" style="1"/>
-    <col min="8705" max="8705" width="1.625" style="1" customWidth="1"/>
-    <col min="8706" max="8706" width="5.625" style="1" customWidth="1"/>
-    <col min="8707" max="8707" width="8.625" style="1" customWidth="1"/>
-    <col min="8708" max="8708" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8960" width="3.625" style="1"/>
-    <col min="8961" max="8961" width="1.625" style="1" customWidth="1"/>
-    <col min="8962" max="8962" width="5.625" style="1" customWidth="1"/>
-    <col min="8963" max="8963" width="8.625" style="1" customWidth="1"/>
-    <col min="8964" max="8964" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8966" max="9216" width="3.625" style="1"/>
-    <col min="9217" max="9217" width="1.625" style="1" customWidth="1"/>
-    <col min="9218" max="9218" width="5.625" style="1" customWidth="1"/>
-    <col min="9219" max="9219" width="8.625" style="1" customWidth="1"/>
-    <col min="9220" max="9220" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9472" width="3.625" style="1"/>
-    <col min="9473" max="9473" width="1.625" style="1" customWidth="1"/>
-    <col min="9474" max="9474" width="5.625" style="1" customWidth="1"/>
-    <col min="9475" max="9475" width="8.625" style="1" customWidth="1"/>
-    <col min="9476" max="9476" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9728" width="3.625" style="1"/>
-    <col min="9729" max="9729" width="1.625" style="1" customWidth="1"/>
-    <col min="9730" max="9730" width="5.625" style="1" customWidth="1"/>
-    <col min="9731" max="9731" width="8.625" style="1" customWidth="1"/>
-    <col min="9732" max="9732" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9984" width="3.625" style="1"/>
-    <col min="9985" max="9985" width="1.625" style="1" customWidth="1"/>
-    <col min="9986" max="9986" width="5.625" style="1" customWidth="1"/>
-    <col min="9987" max="9987" width="8.625" style="1" customWidth="1"/>
-    <col min="9988" max="9988" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9990" max="10240" width="3.625" style="1"/>
-    <col min="10241" max="10241" width="1.625" style="1" customWidth="1"/>
-    <col min="10242" max="10242" width="5.625" style="1" customWidth="1"/>
-    <col min="10243" max="10243" width="8.625" style="1" customWidth="1"/>
-    <col min="10244" max="10244" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10496" width="3.625" style="1"/>
-    <col min="10497" max="10497" width="1.625" style="1" customWidth="1"/>
-    <col min="10498" max="10498" width="5.625" style="1" customWidth="1"/>
-    <col min="10499" max="10499" width="8.625" style="1" customWidth="1"/>
-    <col min="10500" max="10500" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10752" width="3.625" style="1"/>
-    <col min="10753" max="10753" width="1.625" style="1" customWidth="1"/>
-    <col min="10754" max="10754" width="5.625" style="1" customWidth="1"/>
-    <col min="10755" max="10755" width="8.625" style="1" customWidth="1"/>
-    <col min="10756" max="10756" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10758" max="11008" width="3.625" style="1"/>
-    <col min="11009" max="11009" width="1.625" style="1" customWidth="1"/>
-    <col min="11010" max="11010" width="5.625" style="1" customWidth="1"/>
-    <col min="11011" max="11011" width="8.625" style="1" customWidth="1"/>
-    <col min="11012" max="11012" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11264" width="3.625" style="1"/>
-    <col min="11265" max="11265" width="1.625" style="1" customWidth="1"/>
-    <col min="11266" max="11266" width="5.625" style="1" customWidth="1"/>
-    <col min="11267" max="11267" width="8.625" style="1" customWidth="1"/>
-    <col min="11268" max="11268" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11520" width="3.625" style="1"/>
-    <col min="11521" max="11521" width="1.625" style="1" customWidth="1"/>
-    <col min="11522" max="11522" width="5.625" style="1" customWidth="1"/>
-    <col min="11523" max="11523" width="8.625" style="1" customWidth="1"/>
-    <col min="11524" max="11524" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11776" width="3.625" style="1"/>
-    <col min="11777" max="11777" width="1.625" style="1" customWidth="1"/>
-    <col min="11778" max="11778" width="5.625" style="1" customWidth="1"/>
-    <col min="11779" max="11779" width="8.625" style="1" customWidth="1"/>
-    <col min="11780" max="11780" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11782" max="12032" width="3.625" style="1"/>
-    <col min="12033" max="12033" width="1.625" style="1" customWidth="1"/>
-    <col min="12034" max="12034" width="5.625" style="1" customWidth="1"/>
-    <col min="12035" max="12035" width="8.625" style="1" customWidth="1"/>
-    <col min="12036" max="12036" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12288" width="3.625" style="1"/>
-    <col min="12289" max="12289" width="1.625" style="1" customWidth="1"/>
-    <col min="12290" max="12290" width="5.625" style="1" customWidth="1"/>
-    <col min="12291" max="12291" width="8.625" style="1" customWidth="1"/>
-    <col min="12292" max="12292" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12544" width="3.625" style="1"/>
-    <col min="12545" max="12545" width="1.625" style="1" customWidth="1"/>
-    <col min="12546" max="12546" width="5.625" style="1" customWidth="1"/>
-    <col min="12547" max="12547" width="8.625" style="1" customWidth="1"/>
-    <col min="12548" max="12548" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12800" width="3.625" style="1"/>
-    <col min="12801" max="12801" width="1.625" style="1" customWidth="1"/>
-    <col min="12802" max="12802" width="5.625" style="1" customWidth="1"/>
-    <col min="12803" max="12803" width="8.625" style="1" customWidth="1"/>
-    <col min="12804" max="12804" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12806" max="13056" width="3.625" style="1"/>
-    <col min="13057" max="13057" width="1.625" style="1" customWidth="1"/>
-    <col min="13058" max="13058" width="5.625" style="1" customWidth="1"/>
-    <col min="13059" max="13059" width="8.625" style="1" customWidth="1"/>
-    <col min="13060" max="13060" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13312" width="3.625" style="1"/>
-    <col min="13313" max="13313" width="1.625" style="1" customWidth="1"/>
-    <col min="13314" max="13314" width="5.625" style="1" customWidth="1"/>
-    <col min="13315" max="13315" width="8.625" style="1" customWidth="1"/>
-    <col min="13316" max="13316" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13568" width="3.625" style="1"/>
-    <col min="13569" max="13569" width="1.625" style="1" customWidth="1"/>
-    <col min="13570" max="13570" width="5.625" style="1" customWidth="1"/>
-    <col min="13571" max="13571" width="8.625" style="1" customWidth="1"/>
-    <col min="13572" max="13572" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13824" width="3.625" style="1"/>
-    <col min="13825" max="13825" width="1.625" style="1" customWidth="1"/>
-    <col min="13826" max="13826" width="5.625" style="1" customWidth="1"/>
-    <col min="13827" max="13827" width="8.625" style="1" customWidth="1"/>
-    <col min="13828" max="13828" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13830" max="14080" width="3.625" style="1"/>
-    <col min="14081" max="14081" width="1.625" style="1" customWidth="1"/>
-    <col min="14082" max="14082" width="5.625" style="1" customWidth="1"/>
-    <col min="14083" max="14083" width="8.625" style="1" customWidth="1"/>
-    <col min="14084" max="14084" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14336" width="3.625" style="1"/>
-    <col min="14337" max="14337" width="1.625" style="1" customWidth="1"/>
-    <col min="14338" max="14338" width="5.625" style="1" customWidth="1"/>
-    <col min="14339" max="14339" width="8.625" style="1" customWidth="1"/>
-    <col min="14340" max="14340" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14592" width="3.625" style="1"/>
-    <col min="14593" max="14593" width="1.625" style="1" customWidth="1"/>
-    <col min="14594" max="14594" width="5.625" style="1" customWidth="1"/>
-    <col min="14595" max="14595" width="8.625" style="1" customWidth="1"/>
-    <col min="14596" max="14596" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14848" width="3.625" style="1"/>
-    <col min="14849" max="14849" width="1.625" style="1" customWidth="1"/>
-    <col min="14850" max="14850" width="5.625" style="1" customWidth="1"/>
-    <col min="14851" max="14851" width="8.625" style="1" customWidth="1"/>
-    <col min="14852" max="14852" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14854" max="15104" width="3.625" style="1"/>
-    <col min="15105" max="15105" width="1.625" style="1" customWidth="1"/>
-    <col min="15106" max="15106" width="5.625" style="1" customWidth="1"/>
-    <col min="15107" max="15107" width="8.625" style="1" customWidth="1"/>
-    <col min="15108" max="15108" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15360" width="3.625" style="1"/>
-    <col min="15361" max="15361" width="1.625" style="1" customWidth="1"/>
-    <col min="15362" max="15362" width="5.625" style="1" customWidth="1"/>
-    <col min="15363" max="15363" width="8.625" style="1" customWidth="1"/>
-    <col min="15364" max="15364" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15616" width="3.625" style="1"/>
-    <col min="15617" max="15617" width="1.625" style="1" customWidth="1"/>
-    <col min="15618" max="15618" width="5.625" style="1" customWidth="1"/>
-    <col min="15619" max="15619" width="8.625" style="1" customWidth="1"/>
-    <col min="15620" max="15620" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15872" width="3.625" style="1"/>
-    <col min="15873" max="15873" width="1.625" style="1" customWidth="1"/>
-    <col min="15874" max="15874" width="5.625" style="1" customWidth="1"/>
-    <col min="15875" max="15875" width="8.625" style="1" customWidth="1"/>
-    <col min="15876" max="15876" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15878" max="16128" width="3.625" style="1"/>
-    <col min="16129" max="16129" width="1.625" style="1" customWidth="1"/>
-    <col min="16130" max="16130" width="5.625" style="1" customWidth="1"/>
-    <col min="16131" max="16131" width="8.625" style="1" customWidth="1"/>
-    <col min="16132" max="16132" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16384" width="3.625" style="1"/>
+    <col min="4" max="4" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="257" width="3.625" style="1"/>
+    <col min="258" max="258" width="1.625" style="1" customWidth="1"/>
+    <col min="259" max="259" width="5.625" style="1" customWidth="1"/>
+    <col min="260" max="260" width="8.625" style="1" customWidth="1"/>
+    <col min="261" max="261" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="513" width="3.625" style="1"/>
+    <col min="514" max="514" width="1.625" style="1" customWidth="1"/>
+    <col min="515" max="515" width="5.625" style="1" customWidth="1"/>
+    <col min="516" max="516" width="8.625" style="1" customWidth="1"/>
+    <col min="517" max="517" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="519" max="769" width="3.625" style="1"/>
+    <col min="770" max="770" width="1.625" style="1" customWidth="1"/>
+    <col min="771" max="771" width="5.625" style="1" customWidth="1"/>
+    <col min="772" max="772" width="8.625" style="1" customWidth="1"/>
+    <col min="773" max="773" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="775" max="1025" width="3.625" style="1"/>
+    <col min="1026" max="1026" width="1.625" style="1" customWidth="1"/>
+    <col min="1027" max="1027" width="5.625" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="8.625" style="1" customWidth="1"/>
+    <col min="1029" max="1029" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1281" width="3.625" style="1"/>
+    <col min="1282" max="1282" width="1.625" style="1" customWidth="1"/>
+    <col min="1283" max="1283" width="5.625" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="8.625" style="1" customWidth="1"/>
+    <col min="1285" max="1285" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1537" width="3.625" style="1"/>
+    <col min="1538" max="1538" width="1.625" style="1" customWidth="1"/>
+    <col min="1539" max="1539" width="5.625" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="8.625" style="1" customWidth="1"/>
+    <col min="1541" max="1541" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1793" width="3.625" style="1"/>
+    <col min="1794" max="1794" width="1.625" style="1" customWidth="1"/>
+    <col min="1795" max="1795" width="5.625" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="8.625" style="1" customWidth="1"/>
+    <col min="1797" max="1797" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1799" max="2049" width="3.625" style="1"/>
+    <col min="2050" max="2050" width="1.625" style="1" customWidth="1"/>
+    <col min="2051" max="2051" width="5.625" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="8.625" style="1" customWidth="1"/>
+    <col min="2053" max="2053" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2305" width="3.625" style="1"/>
+    <col min="2306" max="2306" width="1.625" style="1" customWidth="1"/>
+    <col min="2307" max="2307" width="5.625" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="8.625" style="1" customWidth="1"/>
+    <col min="2309" max="2309" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2561" width="3.625" style="1"/>
+    <col min="2562" max="2562" width="1.625" style="1" customWidth="1"/>
+    <col min="2563" max="2563" width="5.625" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="8.625" style="1" customWidth="1"/>
+    <col min="2565" max="2565" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2817" width="3.625" style="1"/>
+    <col min="2818" max="2818" width="1.625" style="1" customWidth="1"/>
+    <col min="2819" max="2819" width="5.625" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="8.625" style="1" customWidth="1"/>
+    <col min="2821" max="2821" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2823" max="3073" width="3.625" style="1"/>
+    <col min="3074" max="3074" width="1.625" style="1" customWidth="1"/>
+    <col min="3075" max="3075" width="5.625" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="8.625" style="1" customWidth="1"/>
+    <col min="3077" max="3077" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3329" width="3.625" style="1"/>
+    <col min="3330" max="3330" width="1.625" style="1" customWidth="1"/>
+    <col min="3331" max="3331" width="5.625" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="8.625" style="1" customWidth="1"/>
+    <col min="3333" max="3333" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3585" width="3.625" style="1"/>
+    <col min="3586" max="3586" width="1.625" style="1" customWidth="1"/>
+    <col min="3587" max="3587" width="5.625" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="8.625" style="1" customWidth="1"/>
+    <col min="3589" max="3589" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3841" width="3.625" style="1"/>
+    <col min="3842" max="3842" width="1.625" style="1" customWidth="1"/>
+    <col min="3843" max="3843" width="5.625" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="8.625" style="1" customWidth="1"/>
+    <col min="3845" max="3845" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3847" max="4097" width="3.625" style="1"/>
+    <col min="4098" max="4098" width="1.625" style="1" customWidth="1"/>
+    <col min="4099" max="4099" width="5.625" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="8.625" style="1" customWidth="1"/>
+    <col min="4101" max="4101" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4353" width="3.625" style="1"/>
+    <col min="4354" max="4354" width="1.625" style="1" customWidth="1"/>
+    <col min="4355" max="4355" width="5.625" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="8.625" style="1" customWidth="1"/>
+    <col min="4357" max="4357" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4609" width="3.625" style="1"/>
+    <col min="4610" max="4610" width="1.625" style="1" customWidth="1"/>
+    <col min="4611" max="4611" width="5.625" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="8.625" style="1" customWidth="1"/>
+    <col min="4613" max="4613" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4865" width="3.625" style="1"/>
+    <col min="4866" max="4866" width="1.625" style="1" customWidth="1"/>
+    <col min="4867" max="4867" width="5.625" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="8.625" style="1" customWidth="1"/>
+    <col min="4869" max="4869" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4871" max="5121" width="3.625" style="1"/>
+    <col min="5122" max="5122" width="1.625" style="1" customWidth="1"/>
+    <col min="5123" max="5123" width="5.625" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="8.625" style="1" customWidth="1"/>
+    <col min="5125" max="5125" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5377" width="3.625" style="1"/>
+    <col min="5378" max="5378" width="1.625" style="1" customWidth="1"/>
+    <col min="5379" max="5379" width="5.625" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="8.625" style="1" customWidth="1"/>
+    <col min="5381" max="5381" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5633" width="3.625" style="1"/>
+    <col min="5634" max="5634" width="1.625" style="1" customWidth="1"/>
+    <col min="5635" max="5635" width="5.625" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="8.625" style="1" customWidth="1"/>
+    <col min="5637" max="5637" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5889" width="3.625" style="1"/>
+    <col min="5890" max="5890" width="1.625" style="1" customWidth="1"/>
+    <col min="5891" max="5891" width="5.625" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="8.625" style="1" customWidth="1"/>
+    <col min="5893" max="5893" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5895" max="6145" width="3.625" style="1"/>
+    <col min="6146" max="6146" width="1.625" style="1" customWidth="1"/>
+    <col min="6147" max="6147" width="5.625" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="8.625" style="1" customWidth="1"/>
+    <col min="6149" max="6149" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6401" width="3.625" style="1"/>
+    <col min="6402" max="6402" width="1.625" style="1" customWidth="1"/>
+    <col min="6403" max="6403" width="5.625" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="8.625" style="1" customWidth="1"/>
+    <col min="6405" max="6405" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6657" width="3.625" style="1"/>
+    <col min="6658" max="6658" width="1.625" style="1" customWidth="1"/>
+    <col min="6659" max="6659" width="5.625" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="8.625" style="1" customWidth="1"/>
+    <col min="6661" max="6661" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6913" width="3.625" style="1"/>
+    <col min="6914" max="6914" width="1.625" style="1" customWidth="1"/>
+    <col min="6915" max="6915" width="5.625" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="8.625" style="1" customWidth="1"/>
+    <col min="6917" max="6917" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6919" max="7169" width="3.625" style="1"/>
+    <col min="7170" max="7170" width="1.625" style="1" customWidth="1"/>
+    <col min="7171" max="7171" width="5.625" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="8.625" style="1" customWidth="1"/>
+    <col min="7173" max="7173" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7425" width="3.625" style="1"/>
+    <col min="7426" max="7426" width="1.625" style="1" customWidth="1"/>
+    <col min="7427" max="7427" width="5.625" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="8.625" style="1" customWidth="1"/>
+    <col min="7429" max="7429" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7681" width="3.625" style="1"/>
+    <col min="7682" max="7682" width="1.625" style="1" customWidth="1"/>
+    <col min="7683" max="7683" width="5.625" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="8.625" style="1" customWidth="1"/>
+    <col min="7685" max="7685" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7937" width="3.625" style="1"/>
+    <col min="7938" max="7938" width="1.625" style="1" customWidth="1"/>
+    <col min="7939" max="7939" width="5.625" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="8.625" style="1" customWidth="1"/>
+    <col min="7941" max="7941" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7943" max="8193" width="3.625" style="1"/>
+    <col min="8194" max="8194" width="1.625" style="1" customWidth="1"/>
+    <col min="8195" max="8195" width="5.625" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="8.625" style="1" customWidth="1"/>
+    <col min="8197" max="8197" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8449" width="3.625" style="1"/>
+    <col min="8450" max="8450" width="1.625" style="1" customWidth="1"/>
+    <col min="8451" max="8451" width="5.625" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="8.625" style="1" customWidth="1"/>
+    <col min="8453" max="8453" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8705" width="3.625" style="1"/>
+    <col min="8706" max="8706" width="1.625" style="1" customWidth="1"/>
+    <col min="8707" max="8707" width="5.625" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="8.625" style="1" customWidth="1"/>
+    <col min="8709" max="8709" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8961" width="3.625" style="1"/>
+    <col min="8962" max="8962" width="1.625" style="1" customWidth="1"/>
+    <col min="8963" max="8963" width="5.625" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="8.625" style="1" customWidth="1"/>
+    <col min="8965" max="8965" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8967" max="9217" width="3.625" style="1"/>
+    <col min="9218" max="9218" width="1.625" style="1" customWidth="1"/>
+    <col min="9219" max="9219" width="5.625" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="8.625" style="1" customWidth="1"/>
+    <col min="9221" max="9221" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9473" width="3.625" style="1"/>
+    <col min="9474" max="9474" width="1.625" style="1" customWidth="1"/>
+    <col min="9475" max="9475" width="5.625" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="8.625" style="1" customWidth="1"/>
+    <col min="9477" max="9477" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9729" width="3.625" style="1"/>
+    <col min="9730" max="9730" width="1.625" style="1" customWidth="1"/>
+    <col min="9731" max="9731" width="5.625" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="8.625" style="1" customWidth="1"/>
+    <col min="9733" max="9733" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9985" width="3.625" style="1"/>
+    <col min="9986" max="9986" width="1.625" style="1" customWidth="1"/>
+    <col min="9987" max="9987" width="5.625" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="8.625" style="1" customWidth="1"/>
+    <col min="9989" max="9989" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9991" max="10241" width="3.625" style="1"/>
+    <col min="10242" max="10242" width="1.625" style="1" customWidth="1"/>
+    <col min="10243" max="10243" width="5.625" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="8.625" style="1" customWidth="1"/>
+    <col min="10245" max="10245" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10497" width="3.625" style="1"/>
+    <col min="10498" max="10498" width="1.625" style="1" customWidth="1"/>
+    <col min="10499" max="10499" width="5.625" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="8.625" style="1" customWidth="1"/>
+    <col min="10501" max="10501" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10753" width="3.625" style="1"/>
+    <col min="10754" max="10754" width="1.625" style="1" customWidth="1"/>
+    <col min="10755" max="10755" width="5.625" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="8.625" style="1" customWidth="1"/>
+    <col min="10757" max="10757" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10759" max="11009" width="3.625" style="1"/>
+    <col min="11010" max="11010" width="1.625" style="1" customWidth="1"/>
+    <col min="11011" max="11011" width="5.625" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="8.625" style="1" customWidth="1"/>
+    <col min="11013" max="11013" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11265" width="3.625" style="1"/>
+    <col min="11266" max="11266" width="1.625" style="1" customWidth="1"/>
+    <col min="11267" max="11267" width="5.625" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="8.625" style="1" customWidth="1"/>
+    <col min="11269" max="11269" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11521" width="3.625" style="1"/>
+    <col min="11522" max="11522" width="1.625" style="1" customWidth="1"/>
+    <col min="11523" max="11523" width="5.625" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="8.625" style="1" customWidth="1"/>
+    <col min="11525" max="11525" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11777" width="3.625" style="1"/>
+    <col min="11778" max="11778" width="1.625" style="1" customWidth="1"/>
+    <col min="11779" max="11779" width="5.625" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="8.625" style="1" customWidth="1"/>
+    <col min="11781" max="11781" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11783" max="12033" width="3.625" style="1"/>
+    <col min="12034" max="12034" width="1.625" style="1" customWidth="1"/>
+    <col min="12035" max="12035" width="5.625" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="8.625" style="1" customWidth="1"/>
+    <col min="12037" max="12037" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12289" width="3.625" style="1"/>
+    <col min="12290" max="12290" width="1.625" style="1" customWidth="1"/>
+    <col min="12291" max="12291" width="5.625" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="8.625" style="1" customWidth="1"/>
+    <col min="12293" max="12293" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12545" width="3.625" style="1"/>
+    <col min="12546" max="12546" width="1.625" style="1" customWidth="1"/>
+    <col min="12547" max="12547" width="5.625" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="8.625" style="1" customWidth="1"/>
+    <col min="12549" max="12549" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12801" width="3.625" style="1"/>
+    <col min="12802" max="12802" width="1.625" style="1" customWidth="1"/>
+    <col min="12803" max="12803" width="5.625" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="8.625" style="1" customWidth="1"/>
+    <col min="12805" max="12805" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12807" max="13057" width="3.625" style="1"/>
+    <col min="13058" max="13058" width="1.625" style="1" customWidth="1"/>
+    <col min="13059" max="13059" width="5.625" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="8.625" style="1" customWidth="1"/>
+    <col min="13061" max="13061" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13313" width="3.625" style="1"/>
+    <col min="13314" max="13314" width="1.625" style="1" customWidth="1"/>
+    <col min="13315" max="13315" width="5.625" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="8.625" style="1" customWidth="1"/>
+    <col min="13317" max="13317" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13569" width="3.625" style="1"/>
+    <col min="13570" max="13570" width="1.625" style="1" customWidth="1"/>
+    <col min="13571" max="13571" width="5.625" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="8.625" style="1" customWidth="1"/>
+    <col min="13573" max="13573" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13825" width="3.625" style="1"/>
+    <col min="13826" max="13826" width="1.625" style="1" customWidth="1"/>
+    <col min="13827" max="13827" width="5.625" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="8.625" style="1" customWidth="1"/>
+    <col min="13829" max="13829" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13831" max="14081" width="3.625" style="1"/>
+    <col min="14082" max="14082" width="1.625" style="1" customWidth="1"/>
+    <col min="14083" max="14083" width="5.625" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="8.625" style="1" customWidth="1"/>
+    <col min="14085" max="14085" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14337" width="3.625" style="1"/>
+    <col min="14338" max="14338" width="1.625" style="1" customWidth="1"/>
+    <col min="14339" max="14339" width="5.625" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="8.625" style="1" customWidth="1"/>
+    <col min="14341" max="14341" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14593" width="3.625" style="1"/>
+    <col min="14594" max="14594" width="1.625" style="1" customWidth="1"/>
+    <col min="14595" max="14595" width="5.625" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="8.625" style="1" customWidth="1"/>
+    <col min="14597" max="14597" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14849" width="3.625" style="1"/>
+    <col min="14850" max="14850" width="1.625" style="1" customWidth="1"/>
+    <col min="14851" max="14851" width="5.625" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="8.625" style="1" customWidth="1"/>
+    <col min="14853" max="14853" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14855" max="15105" width="3.625" style="1"/>
+    <col min="15106" max="15106" width="1.625" style="1" customWidth="1"/>
+    <col min="15107" max="15107" width="5.625" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="8.625" style="1" customWidth="1"/>
+    <col min="15109" max="15109" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15361" width="3.625" style="1"/>
+    <col min="15362" max="15362" width="1.625" style="1" customWidth="1"/>
+    <col min="15363" max="15363" width="5.625" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="8.625" style="1" customWidth="1"/>
+    <col min="15365" max="15365" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15617" width="3.625" style="1"/>
+    <col min="15618" max="15618" width="1.625" style="1" customWidth="1"/>
+    <col min="15619" max="15619" width="5.625" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="8.625" style="1" customWidth="1"/>
+    <col min="15621" max="15621" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15873" width="3.625" style="1"/>
+    <col min="15874" max="15874" width="1.625" style="1" customWidth="1"/>
+    <col min="15875" max="15875" width="5.625" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="8.625" style="1" customWidth="1"/>
+    <col min="15877" max="15877" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15879" max="16129" width="3.625" style="1"/>
+    <col min="16130" max="16130" width="1.625" style="1" customWidth="1"/>
+    <col min="16131" max="16131" width="5.625" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="8.625" style="1" customWidth="1"/>
+    <col min="16133" max="16133" width="83.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="5" spans="2:5" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="26" t="s">
+    <row r="5" spans="2:6" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="28" t="s">
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="4" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9"/>
-      <c r="C9" s="10" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="22"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="11"/>
-      <c r="C11" s="8" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="28"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="28"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="28"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="5" t="s">
+      <c r="C14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="28"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="9"/>
-      <c r="C13" s="10" t="s">
+      <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="11"/>
-      <c r="C14" s="8" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="22"/>
+      <c r="C17" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B15" s="11"/>
-      <c r="C15" s="10" t="s">
+      <c r="D17" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="22"/>
+      <c r="C18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="11"/>
-      <c r="C17" s="8" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="30"/>
+      <c r="C20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B18" s="11"/>
-      <c r="C18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="11"/>
-      <c r="C19" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="11"/>
-      <c r="C21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B22" s="11"/>
-      <c r="C22" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="11"/>
-      <c r="C23" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="11"/>
-      <c r="C25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B26" s="11"/>
-      <c r="C26" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="16"/>
-      <c r="C27" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="2:5" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D30" s="17"/>
-    </row>
+      <c r="D20" s="7"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B5:C5"/>
@@ -2084,25 +2054,25 @@
       <c r="C2" s="2"/>
     </row>
     <row r="5" spans="2:6" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="23"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="4" t="s">
         <v>4</v>
       </c>
@@ -2115,121 +2085,121 @@
         <v>6</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="8"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="8"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="11"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="8"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="8"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="8"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="22"/>
+      <c r="C15" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="E15" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="24"/>
-      <c r="C15" s="25" t="s">
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="2:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="8"/>
+      <c r="C16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="2:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="9"/>
-      <c r="C16" s="8" t="s">
+      <c r="E16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="14"/>
+      <c r="C18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="16"/>
-      <c r="C18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2417,18 +2387,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2450,14 +2420,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2471,4 +2433,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_requirements/非機能要求一覧.xlsx
+++ b/01_requirements/非機能要求一覧.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B10961-3062-438B-9DEA-D68BC98F19B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C10D35-8E44-4E8F-8DE6-9F80A94817E4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="285" windowWidth="18330" windowHeight="10245" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="675" windowWidth="18330" windowHeight="10245" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非機能要求" sheetId="5" r:id="rId1"/>
@@ -667,6 +667,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -678,15 +687,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1065,8 +1065,8 @@
   </sheetPr>
   <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1466,10 +1466,10 @@
       <c r="C2" s="2"/>
     </row>
     <row r="5" spans="2:6" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1479,11 +1479,11 @@
     </row>
     <row r="6" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="21"/>
       <c r="F7" s="4" t="s">
         <v>4</v>
@@ -1519,7 +1519,7 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="28"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
         <v>26</v>
@@ -1532,7 +1532,7 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="28"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
         <v>28</v>
@@ -1545,7 +1545,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="28"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
         <v>30</v>
@@ -1569,7 +1569,7 @@
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="28"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="18"/>
@@ -1591,7 +1591,7 @@
       <c r="C17" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="25" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="18" t="s">
@@ -1622,7 +1622,7 @@
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="30"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="7" t="s">
         <v>17</v>
       </c>
@@ -2054,10 +2054,10 @@
       <c r="C2" s="2"/>
     </row>
     <row r="5" spans="2:6" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
@@ -2067,11 +2067,11 @@
     </row>
     <row r="6" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="21"/>
       <c r="F7" s="4" t="s">
         <v>4</v>
@@ -2387,18 +2387,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2420,6 +2420,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2433,12 +2441,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_requirements/非機能要求一覧.xlsx
+++ b/01_requirements/非機能要求一覧.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C10D35-8E44-4E8F-8DE6-9F80A94817E4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BC7ED2-FD1A-49C4-9BB3-BA8F2AF88DD5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="675" windowWidth="18330" windowHeight="10245" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2387,18 +2387,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2420,14 +2420,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2441,4 +2433,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_requirements/非機能要求一覧.xlsx
+++ b/01_requirements/非機能要求一覧.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BC7ED2-FD1A-49C4-9BB3-BA8F2AF88DD5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872C67A5-7372-45CF-BF25-9C6110D74473}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="675" windowWidth="18330" windowHeight="10245" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2387,18 +2387,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2420,6 +2420,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2433,12 +2441,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_requirements/非機能要求一覧.xlsx
+++ b/01_requirements/非機能要求一覧.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872C67A5-7372-45CF-BF25-9C6110D74473}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D97424-C7C2-40EE-A81C-EEA2DFB18B97}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="675" windowWidth="18330" windowHeight="10245" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="135" windowWidth="18330" windowHeight="10245" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非機能要求" sheetId="5" r:id="rId1"/>
@@ -377,10 +377,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>時間を計測、結果で表示する。</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>第2反復では検討しない。</t>
     <rPh sb="0" eb="1">
       <t>ダイ</t>
@@ -395,6 +391,10 @@
   </si>
   <si>
     <t>拡張性の高い設計、実装を行う。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>時間を計測、結果で表示できるようにする。</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1065,8 +1065,8 @@
   </sheetPr>
   <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1548,13 +1548,13 @@
       <c r="B13" s="24"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1592,7 +1592,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>21</v>
@@ -2387,18 +2387,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2420,14 +2420,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2441,4 +2433,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_requirements/非機能要求一覧.xlsx
+++ b/01_requirements/非機能要求一覧.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D97424-C7C2-40EE-A81C-EEA2DFB18B97}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC8858E-6B5E-42CF-82D7-2F6D08A0457E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="135" windowWidth="18330" windowHeight="10245" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1275" windowWidth="18330" windowHeight="10245" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非機能要求" sheetId="5" r:id="rId1"/>
@@ -1066,7 +1066,7 @@
   <dimension ref="B1:F21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2387,18 +2387,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2420,6 +2420,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2433,12 +2441,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_requirements/非機能要求一覧.xlsx
+++ b/01_requirements/非機能要求一覧.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC8858E-6B5E-42CF-82D7-2F6D08A0457E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F23BA3F-720B-4283-959C-137AFE26E758}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1275" windowWidth="18330" windowHeight="10245" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="750" windowWidth="18330" windowHeight="10245" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非機能要求" sheetId="5" r:id="rId1"/>
@@ -1066,7 +1066,7 @@
   <dimension ref="B1:F21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2217,6 +2217,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2386,22 +2401,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1C1027-CEFA-4AD3-8FFD-CE8AA26AEFED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2417,28 +2441,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_requirements/非機能要求一覧.xlsx
+++ b/01_requirements/非機能要求一覧.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F23BA3F-720B-4283-959C-137AFE26E758}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5957833-7528-48ED-8CA1-6439B1650ADE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="750" windowWidth="18330" windowHeight="10245" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非機能要求" sheetId="5" r:id="rId1"/>
@@ -377,24 +377,36 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>第2反復では検討しない。</t>
+    <t>拡張性の高い設計、実装を行う。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>同じ難易度でも、競い合える機能が欲しい。</t>
     <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケントウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>拡張性の高い設計、実装を行う。</t>
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ホ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>時間を計測、結果で表示できるようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1065,8 +1077,8 @@
   </sheetPr>
   <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1076,7 +1088,7 @@
     <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="83.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5" style="1" customWidth="1"/>
     <col min="7" max="257" width="3.625" style="1"/>
     <col min="258" max="258" width="1.625" style="1" customWidth="1"/>
     <col min="259" max="259" width="5.625" style="1" customWidth="1"/>
@@ -1548,13 +1560,13 @@
       <c r="B13" s="24"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1592,7 +1604,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>21</v>
@@ -2223,15 +2235,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2401,6 +2404,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
   <ds:schemaRefs>
@@ -2418,14 +2430,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1C1027-CEFA-4AD3-8FFD-CE8AA26AEFED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2441,4 +2445,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>